--- a/src/main/resources/jxls/out/季度预测报告.xlsx
+++ b/src/main/resources/jxls/out/季度预测报告.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="625">
   <si>
     <t>12月</t>
   </si>
@@ -1882,6 +1882,18 @@
   </si>
   <si>
     <t>麦凯瑞（芜湖）汽车外饰有限公司</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>www</t>
@@ -10170,7 +10182,7 @@
         <v>0.0</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:84" s="2" customFormat="1" ht="12.0" customHeight="true">
@@ -10235,7 +10247,7 @@
         <v>0.0</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:84" s="2" customFormat="1" ht="12.0" customHeight="true">
@@ -10377,22 +10389,54 @@
       <c r="D17" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
+      <c r="E17" s="39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q17" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="R17" s="44" t="s">
+        <v>620</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>620</v>
+      </c>
       <c r="U17" s="16"/>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" ht="12.0" customHeight="true">
@@ -10883,7 +10927,7 @@
         <v>0.0</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="2" customFormat="1" ht="12.0" customHeight="true">
@@ -10948,7 +10992,7 @@
         <v>0.0</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="2" customFormat="1" ht="12.0" customHeight="true">
@@ -11090,22 +11134,54 @@
       <c r="D30" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="26"/>
+      <c r="E30" s="39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G30" s="40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="N30" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q30" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="R30" s="44" t="s">
+        <v>620</v>
+      </c>
+      <c r="S30" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>620</v>
+      </c>
       <c r="U30" s="16"/>
     </row>
     <row r="31" spans="1:21" s="21" customFormat="1" ht="12.0" customHeight="true">
@@ -11738,22 +11814,54 @@
       <c r="D42" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="26"/>
+      <c r="E42" s="39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F42" s="15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G42" s="40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="J42" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="L42" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="M42" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="N42" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="O42" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="P42" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q42" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="R42" s="44" t="s">
+        <v>620</v>
+      </c>
+      <c r="S42" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="T42" s="26" t="s">
+        <v>620</v>
+      </c>
       <c r="U42" s="16"/>
     </row>
     <row r="43" spans="1:21" s="2" customFormat="1" ht="12.0" customHeight="true">
@@ -12441,22 +12549,54 @@
       <c r="D55" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="26"/>
+      <c r="E55" s="39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G55" s="40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="J55" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="K55" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="L55" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="M55" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="N55" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="O55" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="P55" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q55" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="R55" s="44" t="s">
+        <v>620</v>
+      </c>
+      <c r="S55" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="T55" s="26" t="s">
+        <v>620</v>
+      </c>
       <c r="U55" s="16"/>
     </row>
     <row r="56" spans="1:21" s="2" customFormat="1" ht="12.0" customHeight="true">
@@ -13024,22 +13164,54 @@
       <c r="D66" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="26"/>
+      <c r="E66" s="39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F66" s="15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G66" s="40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="K66" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="L66" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="M66" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="N66" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="O66" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="P66" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="Q66" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="R66" t="s" s="44">
+        <v>620</v>
+      </c>
+      <c r="S66" t="s" s="25">
+        <v>620</v>
+      </c>
+      <c r="T66" t="s" s="26">
+        <v>620</v>
+      </c>
       <c r="U66" s="16"/>
     </row>
     <row r="67" spans="1:21" s="2" customFormat="1" ht="12.0" customHeight="true">
@@ -13611,22 +13783,54 @@
       <c r="D77" t="s" s="73">
         <v>29</v>
       </c>
-      <c r="E77" s="39"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="25"/>
-      <c r="T77" s="26"/>
+      <c r="E77" s="39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F77" t="n" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="G77" t="n" s="40">
+        <v>5.0</v>
+      </c>
+      <c r="H77" t="s" s="40">
+        <v>617</v>
+      </c>
+      <c r="I77" t="s" s="40">
+        <v>617</v>
+      </c>
+      <c r="J77" t="s" s="40">
+        <v>618</v>
+      </c>
+      <c r="K77" t="s" s="40">
+        <v>619</v>
+      </c>
+      <c r="L77" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="M77" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="N77" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="O77" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="P77" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="Q77" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="R77" t="s" s="44">
+        <v>620</v>
+      </c>
+      <c r="S77" t="s" s="25">
+        <v>620</v>
+      </c>
+      <c r="T77" t="s" s="26">
+        <v>620</v>
+      </c>
       <c r="U77" s="16"/>
     </row>
     <row r="78" spans="1:21" ht="12.0" customHeight="true">
@@ -14198,22 +14402,54 @@
       <c r="D88" t="s" s="77">
         <v>29</v>
       </c>
-      <c r="E88" s="39"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
-      <c r="Q88" s="40"/>
-      <c r="R88" s="44"/>
-      <c r="S88" s="25"/>
-      <c r="T88" s="26"/>
+      <c r="E88" s="39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F88" t="n" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="G88" t="n" s="40">
+        <v>5.0</v>
+      </c>
+      <c r="H88" t="s" s="40">
+        <v>617</v>
+      </c>
+      <c r="I88" t="s" s="40">
+        <v>617</v>
+      </c>
+      <c r="J88" t="s" s="40">
+        <v>618</v>
+      </c>
+      <c r="K88" t="s" s="40">
+        <v>619</v>
+      </c>
+      <c r="L88" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="M88" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="N88" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="O88" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="P88" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="Q88" t="s" s="40">
+        <v>620</v>
+      </c>
+      <c r="R88" t="s" s="44">
+        <v>620</v>
+      </c>
+      <c r="S88" t="s" s="25">
+        <v>620</v>
+      </c>
+      <c r="T88" t="s" s="26">
+        <v>620</v>
+      </c>
       <c r="U88" s="16"/>
     </row>
     <row r="89" spans="5:5" ht="12.0" customHeight="true">
